--- a/performance.xlsx
+++ b/performance.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/tianmeng_chen_intel_com/Documents/Desktop/workspace/stable-diffusion-controlnet/demo_sd1.5_controlnet_lora_static/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="11_F25DC773A252ABDACC1048E4C919653A5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B26DDA2-5733-44F4-B65F-801F27B52D23}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC1048E4C919653A5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A416429-A8DD-4932-ADF0-AEBB4070323E}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3934" yWindow="0" windowWidth="12995" windowHeight="17880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-17388" yWindow="-108" windowWidth="17496" windowHeight="30216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>model name</t>
   </si>
@@ -66,13 +66,28 @@
     <t>Stable-Diffusion 1.5+Controlnet(lineart)+lora</t>
   </si>
   <si>
-    <t>load lora(s)</t>
-  </si>
-  <si>
     <t>pipeline init(s)</t>
   </si>
   <si>
-    <t>8.9GB</t>
+    <t>7.2GB</t>
+  </si>
+  <si>
+    <t>8.6GB</t>
+  </si>
+  <si>
+    <t>load 3 loras(s)</t>
+  </si>
+  <si>
+    <t>pipeline with lora 1 infer(s)</t>
+  </si>
+  <si>
+    <t>pipeline with lora 2 infer(s)</t>
+  </si>
+  <si>
+    <t>pipeline with lora 3 infer(s)</t>
+  </si>
+  <si>
+    <t>Stable-Diffusion 1.5+Controlnet(lineart)</t>
   </si>
 </sst>
 </file>
@@ -397,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -409,12 +424,13 @@
     <col min="2" max="2" width="17.61328125" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.84375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.15234375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.61328125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.84375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.23046875" style="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="25.15234375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.921875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -448,21 +464,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>17</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -470,13 +492,78 @@
         <v>15</v>
       </c>
       <c r="C5" s="1">
-        <v>8.9999999999999993E-3</v>
+        <v>2.8000000000000001E-2</v>
       </c>
       <c r="D5" s="1">
-        <v>12.8</v>
+        <v>12.4</v>
       </c>
       <c r="E5" s="1">
-        <v>15.8</v>
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>15.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>15.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>9.1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11.7</v>
       </c>
     </row>
   </sheetData>

--- a/performance.xlsx
+++ b/performance.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/tianmeng_chen_intel_com/Documents/Desktop/workspace/stable-diffusion-controlnet/demo_sd1.5_controlnet_lora_static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/tianmeng_chen_intel_com/Documents/Desktop/workspace/stable-diffusion-controlnet/sd1.5_controlnet_lora/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_F25DC773A252ABDACC1048E4C919653A5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A416429-A8DD-4932-ADF0-AEBB4070323E}"/>
+  <xr:revisionPtr revIDLastSave="117" documentId="11_F25DC773A252ABDACC1048E4C919653A5ADE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484F4C76-E48E-48B9-A247-EAE0B0065BC4}"/>
   <bookViews>
-    <workbookView xWindow="-17388" yWindow="-108" windowWidth="17496" windowHeight="30216" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,44 +25,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
-  <si>
-    <t>model name</t>
-  </si>
-  <si>
-    <t>device</t>
-  </si>
-  <si>
-    <t>GPU total memory</t>
-  </si>
-  <si>
-    <t>Percision</t>
-  </si>
-  <si>
-    <t>openvino</t>
-  </si>
-  <si>
-    <t>13700+Arc770</t>
-  </si>
-  <si>
-    <t>16GB</t>
-  </si>
-  <si>
-    <t>fp16</t>
-  </si>
-  <si>
-    <t>GPU peek memory</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>pipeline infer(s)</t>
   </si>
   <si>
-    <t>static-shape (1024, 1024)</t>
-  </si>
-  <si>
-    <t>2024.3.0</t>
-  </si>
-  <si>
     <t>Stable-Diffusion 1.5+Controlnet(lineart)+lora</t>
   </si>
   <si>
@@ -75,19 +42,31 @@
     <t>8.6GB</t>
   </si>
   <si>
-    <t>load 3 loras(s)</t>
-  </si>
-  <si>
-    <t>pipeline with lora 1 infer(s)</t>
-  </si>
-  <si>
-    <t>pipeline with lora 2 infer(s)</t>
-  </si>
-  <si>
     <t>pipeline with lora 3 infer(s)</t>
   </si>
   <si>
     <t>Stable-Diffusion 1.5+Controlnet(lineart)</t>
+  </si>
+  <si>
+    <t>pipeline configuration</t>
+  </si>
+  <si>
+    <t>pipeline init inclued lora dict load(s)</t>
+  </si>
+  <si>
+    <t>GPU peak memory</t>
+  </si>
+  <si>
+    <t>Performance evaluation SD1.5 on Arc770 with FP16 percision with generated image resolution of  (1024, 1024)  with unet iteration(20 steps) with openvino(2024.3.0)</t>
+  </si>
+  <si>
+    <t>pipeline infer with lora 1 (s)</t>
+  </si>
+  <si>
+    <t>pipeline infer with lora 2(s)</t>
+  </si>
+  <si>
+    <t>pipeline infer with lora 3(s)</t>
   </si>
 </sst>
 </file>
@@ -111,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,13 +98,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -143,10 +143,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -412,161 +408,114 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A2:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="51.4609375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.61328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24.84375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19.15234375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.07421875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="33.15234375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.84375" style="1" customWidth="1"/>
     <col min="5" max="5" width="27" style="1" customWidth="1"/>
     <col min="6" max="6" width="25.15234375" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.921875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.23046875" style="1"/>
+    <col min="8" max="8" width="25.07421875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="23.23046875" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.23046875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9.1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11.7</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="1">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>12.4</v>
-      </c>
-      <c r="E5" s="1">
-        <v>16</v>
-      </c>
-      <c r="F5" s="1">
-        <v>15.5</v>
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="G5" s="1">
         <v>15.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="B11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1">
-        <v>9.1</v>
-      </c>
-      <c r="E12" s="1">
-        <v>11.7</v>
+      <c r="C6" s="3">
+        <v>12.4</v>
+      </c>
+      <c r="D6" s="3">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="F6" s="3">
+        <v>15.4</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:E2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>